--- a/src/main/resources/examples/VOC处理装置.xlsx
+++ b/src/main/resources/examples/VOC处理装置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="-90" yWindow="-60" windowWidth="23235" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>年份</t>
-  </si>
-  <si>
-    <t>区县</t>
   </si>
   <si>
     <t>区县代码</t>
@@ -85,27 +82,20 @@
     </r>
   </si>
   <si>
-    <t>TJ-SCC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>米东区</t>
-  </si>
-  <si>
     <t>中国石油天然气股份
 有限公司乌鲁木齐石化分公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>71890209-7　</t>
   </si>
   <si>
     <t>净化水厂一车间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>催化燃烧除臭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1117400211</t>
@@ -113,18 +103,15 @@
   <si>
     <t>中国石油天然气股份
 有限公司乌鲁木齐石化分公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>净化水厂二车间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生物法除臭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头屯河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新疆中油化工集团有限公司</t>
@@ -134,18 +121,90 @@
   </si>
   <si>
     <t>装油平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>油气回收系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鲁木齐市米东区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆昌吉州呼图壁县工业园区大风化工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">处理装置效率
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排放量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCC编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在功能区</t>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10（吨）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25（吨）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO（吨）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC（吨）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2（吨） </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX（吨）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3（吨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC（吨）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC（吨）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,24 +213,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -199,18 +241,11 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -229,72 +264,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -306,6 +292,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -598,194 +587,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="40.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>2015</v>
+      </c>
+      <c r="C2">
+        <v>650109</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>87.700934000000004</v>
+      </c>
+      <c r="H2">
+        <v>43.980694</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>8760</v>
+      </c>
+      <c r="M2">
+        <v>1560</v>
+      </c>
+      <c r="N2">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="27">
-      <c r="A2" s="7">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
         <v>2015</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="C3">
         <v>650109</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>87.700934000000004</v>
+      </c>
+      <c r="H3">
+        <v>43.980694</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>8760</v>
+      </c>
+      <c r="M3">
+        <v>17852</v>
+      </c>
+      <c r="N3">
+        <v>0.62</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7">
-        <v>87.700934000000004</v>
-      </c>
-      <c r="G2" s="7">
-        <v>43.980694</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="7">
-        <v>8760</v>
-      </c>
-      <c r="K2" s="7">
-        <v>1560</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="B4">
+        <v>2015</v>
+      </c>
+      <c r="C4">
+        <v>650106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>87.369361999999995</v>
+      </c>
+      <c r="H4">
+        <v>43.874805000000002</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>875</v>
+      </c>
+      <c r="M4">
+        <v>300</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="27">
-      <c r="A3" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8">
-        <v>650109</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7">
-        <v>87.700934000000004</v>
-      </c>
-      <c r="G3" s="7">
-        <v>43.980694</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7">
-        <v>8760</v>
-      </c>
-      <c r="K3" s="7">
-        <v>17852</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7">
-        <v>650106</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7">
-        <v>87.369361999999995</v>
-      </c>
-      <c r="G4" s="7">
-        <v>43.874805000000002</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="7">
-        <v>875</v>
-      </c>
-      <c r="K4" s="7">
-        <v>300</v>
-      </c>
-      <c r="L4" s="7">
-        <v>6</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>18</v>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -796,9 +930,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -809,9 +943,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/examples/VOC处理装置.xlsx
+++ b/src/main/resources/examples/VOC处理装置.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22607"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269622A-F485-4A19-BF8F-FCF83952D1CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-60" windowWidth="23235" windowHeight="12525"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="VOC处理装置" sheetId="1" r:id="rId1"/>
+    <sheet name="说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>年份</t>
   </si>
@@ -82,11 +82,6 @@
     </r>
   </si>
   <si>
-    <t>中国石油天然气股份
-有限公司乌鲁木齐石化分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>71890209-7　</t>
   </si>
   <si>
@@ -99,11 +94,6 @@
   </si>
   <si>
     <t>1117400211</t>
-  </si>
-  <si>
-    <t>中国石油天然气股份
-有限公司乌鲁木齐石化分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>净化水厂二车间</t>
@@ -164,46 +154,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PM10（吨）</t>
+    <t>PM10排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PM25（吨）</t>
+    <t>PM25排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CO（吨）</t>
+    <t>CO排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>VOC（吨）</t>
+    <t>VOC排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">SO2（吨） </t>
+    <t>SO2 排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>NOX（吨）</t>
+    <t>NOX排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>NH3（吨）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OC（吨）</t>
+    <t>NH3排放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>BC（吨）</t>
+    <t>BC排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油天然气1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油天然气2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71890209-3　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,10 +284,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -343,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,9 +381,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,6 +433,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,33 +625,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.47265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1015625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.26171875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -627,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -636,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -654,57 +695,57 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
       <c r="C2">
-        <v>650109</v>
+        <v>210101</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>87.700934000000004</v>
@@ -713,13 +754,13 @@
         <v>43.980694</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
       </c>
       <c r="L2">
         <v>8760</v>
@@ -734,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
@@ -764,24 +805,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C3">
-        <v>650109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+        <v>210102</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>87.700934000000004</v>
@@ -790,13 +831,13 @@
         <v>43.980694</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L3">
         <v>8760</v>
@@ -811,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
@@ -841,24 +882,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C4">
-        <v>650106</v>
+        <v>210103</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>87.369361999999995</v>
@@ -867,13 +908,13 @@
         <v>43.874805000000002</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4">
         <v>875</v>
@@ -888,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -925,25 +966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
